--- a/tests/_data/mock_users.xlsx
+++ b/tests/_data/mock_users.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Laura  Cifrián López</t>
+          <t>Lucía  Pastor Ortiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2003-11-14</t>
+          <t>1982-08-26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
+          <t>2015-03-19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2027-04-16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -533,34 +533,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>password6974</t>
+          <t>password3080</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>+34 692423362</t>
+          <t>+34 681320747</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elena  Somavilla Saldaña</t>
+          <t>María  Rodríguez García</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -570,22 +570,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1987-03-22</t>
+          <t>1999-12-04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2019-01-27</t>
+          <t>2016-09-19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2027-10-02</t>
+          <t>2027-01-18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,22 +595,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>password1664</t>
+          <t>password9111</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>+34 666168516</t>
+          <t>+34 600889878</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laura Dolores Gándara Crespo</t>
+          <t>Isabel Sofía Llata Crespo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -632,22 +632,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1982-07-24</t>
+          <t>1986-07-19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2027-12-06</t>
+          <t>2027-12-18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>password1433</t>
+          <t>password1297</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>+34 666815404</t>
+          <t>+34 633142030</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Laura Sofía Llata Saldaña</t>
+          <t>Clara  Del Rey Saldaña</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1981-12-15</t>
+          <t>1987-08-22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2017-01-19</t>
+          <t>2019-08-02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -719,17 +719,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>password5465</t>
+          <t>password5897</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>+34 686862576</t>
+          <t>+34 691735638</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -739,14 +739,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Isabel  García Martínez</t>
+          <t>Carmen  Hidalgo González</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -756,22 +756,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2006-12-24</t>
+          <t>2008-02-03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2016-06-19</t>
+          <t>2017-05-14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2027-10-14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>password8610</t>
+          <t>password9334</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>+34 608526674</t>
+          <t>+34 687940305</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dolores Isabel Martínez Llata</t>
+          <t>Marta Ana Grapelli Del Rey</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -818,22 +818,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1997-02-14</t>
+          <t>2001-03-25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2016-02-16</t>
+          <t>2017-05-21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>password3188</t>
+          <t>password5729</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>+34 676414682</t>
+          <t>+34 630499647</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,14 +863,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Elena  Gándara Landa</t>
+          <t>Clara Marta Del Rey Saldaña</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -880,22 +880,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2003-10-06</t>
+          <t>1994-03-17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>password2979</t>
+          <t>password4764</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>+34 680695176</t>
+          <t>+34 672898097</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dolores Victoria Nasushkin Álvarez</t>
+          <t>María  Ortiz Ortiz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -942,22 +942,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2009-11-23</t>
+          <t>2002-12-19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-03-14</t>
+          <t>2019-05-23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -972,29 +972,29 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>password8885</t>
+          <t>password3196</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>+34 600630205</t>
+          <t>+34 641713826</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marta  Llata Llata</t>
+          <t>Ana  González Gándara</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1986-04-18</t>
+          <t>2002-09-01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1029,22 +1029,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>password2309</t>
+          <t>password7546</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>+34 647199876</t>
+          <t>+34 607823341</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dolores  Rodríguez Del Rey</t>
+          <t>Dolores Ana Landa Llata</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1066,22 +1066,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1991-02-20</t>
+          <t>2010-06-01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2016-06-28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>password8544</t>
+          <t>password5536</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>+34 607430670</t>
+          <t>+34 614387784</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Isabel  González Pastor</t>
+          <t>Ana  Hidalgo García</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2005-03-03</t>
+          <t>1990-10-15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2016-04-23</t>
+          <t>2017-10-22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1153,22 +1153,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>password4674</t>
+          <t>password4801</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>+34 693894623</t>
+          <t>+34 626838249</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Elena Ana Martínez García</t>
+          <t>Sofía  Rodríguez Crespo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1190,22 +1190,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1988-10-27</t>
+          <t>1987-04-28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2017-11-17</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1215,22 +1215,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>password2441</t>
+          <t>password2182</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>+34 689830551</t>
+          <t>+34 638494292</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1242,7 +1242,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lucía Pilar Llata Cifrián</t>
+          <t>Dolores  Nasushkin Álvarez</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2008-06-25</t>
+          <t>1987-10-04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2017-04-05</t>
+          <t>2019-05-05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2027-04-15</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1277,34 +1277,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>password3700</t>
+          <t>password2088</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>+34 670499194</t>
+          <t>+34 639696800</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pilar  García Witt</t>
+          <t>Pilar Ana Hidalgo Llata</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1314,22 +1314,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2006-04-15</t>
+          <t>1998-03-25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2015-04-10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1339,34 +1339,34 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>password5559</t>
+          <t>password6210</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>+34 689916957</t>
+          <t>+34 636954359</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Laura  Pastor García</t>
+          <t>Carmen  Saldaña Saldaña</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1998-09-24</t>
+          <t>2007-01-09</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2017-10-18</t>
+          <t>2019-03-21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>password4725</t>
+          <t>password8864</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>+34 657180935</t>
+          <t>+34 634061578</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elena Elena Ortiz Llata</t>
+          <t>Ana Lucía Del Rey Álvarez</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1438,22 +1438,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2008-10-17</t>
+          <t>2006-03-21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>Judá</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2018-05-02</t>
+          <t>2017-02-07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>password1306</t>
+          <t>password9213</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>+34 617949327</t>
+          <t>+34 673860246</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1483,14 +1483,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Elena  Álvarez Martínez</t>
+          <t>Ana Laura Pastor Martínez</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1500,22 +1500,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1997-11-02</t>
+          <t>1990-04-12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2027-09-26</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1530,29 +1530,29 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>password5433</t>
+          <t>password6822</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>+34 667240673</t>
+          <t>+34 664207187</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pilar Marta Pastor Del Rey</t>
+          <t>Laura Pilar Crespo Saldaña</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1993-02-03</t>
+          <t>1986-02-08</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-08-19</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1587,34 +1587,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>password4030</t>
+          <t>password9075</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>+34 680892141</t>
+          <t>+34 687224688</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>María  López Hidalgo</t>
+          <t>Dolores  Rodríguez Cifrián</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1624,22 +1624,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2002-12-11</t>
+          <t>1993-09-15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2017-07-22</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2027-06-12</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>password8018</t>
+          <t>password5387</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>+34 640962626</t>
+          <t>+34 687607450</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pilar  García Hidalgo</t>
+          <t>María Isabel Saldaña García</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1686,22 +1686,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1999-07-05</t>
+          <t>2009-08-03</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2019-02-05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>password7758</t>
+          <t>password7746</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>+34 665531894</t>
+          <t>+34 658449559</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1738,7 +1738,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Isabel  Condori Hidalgo</t>
+          <t>Isabel  Crespo Martínez</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1748,22 +1748,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1985-12-04</t>
+          <t>2002-02-09</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2015-10-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>password1890</t>
+          <t>password7430</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>+34 667170484</t>
+          <t>+34 621957090</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ana  García García</t>
+          <t>Pilar  García Crespo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1810,22 +1810,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1992-02-15</t>
+          <t>2002-10-04</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>Maranatha</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2022-08-27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2027-01-04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1835,34 +1835,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>password8627</t>
+          <t>password2933</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>+34 633507457</t>
+          <t>+34 611858144</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>María Carmen Landa Caprara</t>
+          <t>Victoria  Hidalgo Hidalgo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1994-09-12</t>
+          <t>2007-03-27</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2017-10-01</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1897,17 +1897,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>password5482</t>
+          <t>password4011</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>+34 617512295</t>
+          <t>+34 672413618</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1917,14 +1917,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clara  Martínez López</t>
+          <t>Victoria  Gándara García</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1934,22 +1934,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2008-04-24</t>
+          <t>1996-12-20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2016-07-21</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1959,22 +1959,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>password8436</t>
+          <t>password2099</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>+34 600512924</t>
+          <t>+34 675571686</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pilar  Álvarez Grapelli</t>
+          <t>Marta  González López</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1996,22 +1996,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2005-01-24</t>
+          <t>2007-11-08</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>La Roca</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2016-12-24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>password8157</t>
+          <t>password2292</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>+34 614410036</t>
+          <t>+34 633481225</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2048,7 +2048,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pilar Pilar Somavilla Condori</t>
+          <t>Marta María Grapelli Saldaña</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2058,22 +2058,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2000-02-28</t>
+          <t>1982-05-10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2015-04-22</t>
+          <t>2018-09-23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2083,22 +2083,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>password5323</t>
+          <t>password2283</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>+34 635233466</t>
+          <t>+34 658101909</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Elena  Nasushkin González</t>
+          <t>Clara Sara Saldaña Rodríguez</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2120,22 +2120,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1982-12-28</t>
+          <t>2008-12-26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Maranatha</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2019-02-05</t>
+          <t>2017-10-19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2027-03-28</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2150,17 +2150,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>password9129</t>
+          <t>password5029</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>+34 646420592</t>
+          <t>+34 682565524</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sofía María Condori Caprara</t>
+          <t>Laura  Grapelli Gándara</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2002-02-10</t>
+          <t>1985-01-24</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2018-02-05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2027-01-23</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2207,34 +2207,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>password6487</t>
+          <t>password9163</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>+34 698746332</t>
+          <t>+34 633589540</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Laura Marta Condori Rodríguez</t>
+          <t>Pilar Elena López Crespo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2244,22 +2244,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1991-01-12</t>
+          <t>1996-04-02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2019-08-19</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2269,34 +2269,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>password4855</t>
+          <t>password4301</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>+34 623650028</t>
+          <t>+34 685185555</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pilar  Condori López</t>
+          <t>Ana  Cifrián González</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1996-08-12</t>
+          <t>1991-11-14</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Judá</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2017-03-02</t>
+          <t>2016-09-27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2027-04-08</t>
+          <t>2027-05-26</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>password1637</t>
+          <t>password4037</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>+34 698317031</t>
+          <t>+34 663463575</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Laura Isabel Gándara Somavilla</t>
+          <t>María  Rodríguez Álvarez</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2368,22 +2368,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2001-03-03</t>
+          <t>1982-12-18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2016-12-26</t>
+          <t>2015-08-26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>password6273</t>
+          <t>password6012</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>+34 609961834</t>
+          <t>+34 696231572</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dolores  Caprara Ortiz</t>
+          <t>Lucía  Saldaña Del Rey</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2430,22 +2430,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2010-01-13</t>
+          <t>1992-12-04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2016-10-04</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2027-04-12</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2455,22 +2455,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>password8882</t>
+          <t>password9179</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>+34 665831533</t>
+          <t>+34 695708564</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Elena Lucía Grapelli Saldaña</t>
+          <t>Clara Marta Martínez Crespo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2492,22 +2492,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1984-05-16</t>
+          <t>2009-08-02</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Judá</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2017-09-25</t>
+          <t>2018-01-05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2027-02-07</t>
+          <t>2027-06-07</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2517,22 +2517,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>password2516</t>
+          <t>password6205</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>+34 658014122</t>
+          <t>+34 688493673</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2544,7 +2544,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sofía  Martínez López</t>
+          <t>Dolores  Caprara Grapelli</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2554,22 +2554,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1988-02-28</t>
+          <t>2008-11-15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2027-08-27</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2584,17 +2584,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>password4602</t>
+          <t>password7119</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>+34 689382773</t>
+          <t>+34 676009000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Victoria  Cifrián García</t>
+          <t>Lucía Dolores Llata Cifrián</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1981-09-19</t>
+          <t>2003-02-09</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2018-03-05</t>
+          <t>2015-05-08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2027-05-21</t>
+          <t>2027-07-03</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2641,34 +2641,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>password4580</t>
+          <t>password4348</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>+34 618321236</t>
+          <t>+34 621420126</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pilar Victoria Caprara Caprara</t>
+          <t>Dolores  Del Rey Grapelli</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1997-08-16</t>
+          <t>2000-07-20</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2688,12 +2688,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>2019-09-11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2027-01-10</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2708,17 +2708,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>password9758</t>
+          <t>password4954</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>+34 676376397</t>
+          <t>+34 690031373</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2730,7 +2730,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Clara Marta Crespo Del Rey</t>
+          <t>Elena  Witt Witt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2740,22 +2740,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1990-01-26</t>
+          <t>2010-06-19</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021-06-06</t>
+          <t>2019-03-22</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2027-04-12</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2765,34 +2765,34 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>password4017</t>
+          <t>password5105</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>+34 642303824</t>
+          <t>+34 680518056</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sara Dolores Álvarez González</t>
+          <t>Carmen Ana Grapelli Martínez</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2802,22 +2802,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2001-02-06</t>
+          <t>1988-02-03</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2016-12-11</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2827,22 +2827,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>password3928</t>
+          <t>password9529</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>+34 610187354</t>
+          <t>+34 689844935</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2854,7 +2854,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ana Pilar Ortiz Caprara</t>
+          <t>Lucía Ana Hidalgo Pastor</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2006-02-16</t>
+          <t>2007-04-03</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2889,17 +2889,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>password2573</t>
+          <t>password7718</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>+34 633259993</t>
+          <t>+34 617802210</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2909,14 +2909,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>María Clara López Martínez</t>
+          <t>Victoria Laura Ortiz López</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2926,22 +2926,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>1991-09-07</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2015-05-22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2956,29 +2956,29 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>password8035</t>
+          <t>password9202</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>+34 637370092</t>
+          <t>+34 673171283</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>María María Ortiz Rodríguez</t>
+          <t>Isabel  Landa Pastor</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2988,22 +2988,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1982-03-25</t>
+          <t>1987-07-12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2015-02-07</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3013,34 +3013,34 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>password4723</t>
+          <t>password3387</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>+34 696891951</t>
+          <t>+34 676043273</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lucía  Álvarez Ortiz</t>
+          <t>Clara Ana Cifrián Llata</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2004-08-18</t>
+          <t>2000-08-08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021-12-20</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2027-01-09</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3075,22 +3075,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>password8619</t>
+          <t>password2599</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>+34 677157276</t>
+          <t>+34 600492734</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3102,7 +3102,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Carmen Dolores Nasushkin Caprara</t>
+          <t>Clara Dolores Caprara Hidalgo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1983-03-04</t>
+          <t>2004-03-23</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2017-03-11</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3137,34 +3137,34 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>password6290</t>
+          <t>password4073</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>+34 689944670</t>
+          <t>+34 644302265</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>María  Rodríguez Pastor</t>
+          <t>Elena  Cifrián Rodríguez</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3174,22 +3174,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1983-10-23</t>
+          <t>1994-10-02</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>La Roca</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2016-11-12</t>
+          <t>2019-10-27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3199,17 +3199,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>password5888</t>
+          <t>password9916</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>+34 699068359</t>
+          <t>+34 617817529</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3219,14 +3219,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sara  Grapelli Nasushkin</t>
+          <t>María Sofía Álvarez Caprara</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3236,22 +3236,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2005-08-27</t>
+          <t>2002-02-19</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cristo Redentor</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2022-12-11</t>
+          <t>2015-03-26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3261,34 +3261,34 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>password7505</t>
+          <t>password6011</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>+34 657825574</t>
+          <t>+34 689958076</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Isabel  Saldaña Somavilla</t>
+          <t>Dolores  López Martínez</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3298,22 +3298,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1982-04-15</t>
+          <t>1996-08-21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>Maranatha</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2019-01-03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>password3388</t>
+          <t>password7119</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>+34 616616159</t>
+          <t>+34 604641824</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3350,7 +3350,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Victoria Lucía Pastor Cifrián</t>
+          <t>Elena Victoria Hidalgo Pastor</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3360,22 +3360,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2004-05-14</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>Judá</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2023-11-12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2027-01-14</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3385,17 +3385,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>password9392</t>
+          <t>password7635</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>+34 646729459</t>
+          <t>+34 626303385</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>María Sofía Cifrián Saldaña</t>
+          <t>Sofía Isabel Caprara Ortiz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2005-02-22</t>
+          <t>1990-09-19</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2018-10-07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-11-11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3447,34 +3447,34 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>password5067</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>+34 621427385</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>Rojo</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>password1970</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>+34 692667103</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Blanco</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sara  Witt Hidalgo</t>
+          <t>Sara  Saldaña Hidalgo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3484,22 +3484,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1998-09-07</t>
+          <t>2003-08-22</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2015-01-24</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2027-08-27</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3514,17 +3514,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>password4832</t>
+          <t>password4817</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>+34 627113106</t>
+          <t>+34 601155440</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3536,7 +3536,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dolores Dolores Pastor Cifrián</t>
+          <t>Ana  Pastor Gándara</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3546,22 +3546,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2007-01-14</t>
+          <t>1995-06-27</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2018-08-14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>password5154</t>
+          <t>password2900</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>+34 686804506</t>
+          <t>+34 646590228</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pilar Sara Landa Pastor</t>
+          <t>Victoria Carmen Landa Witt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2008-07-12</t>
+          <t>2002-09-28</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3618,12 +3618,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3633,17 +3633,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>password4552</t>
+          <t>password3241</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>+34 671530759</t>
+          <t>+34 610736286</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3653,14 +3653,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>María  Witt González</t>
+          <t>Marta  Witt Martínez</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1983-04-23</t>
+          <t>1984-01-21</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3695,34 +3695,34 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>password6811</t>
+          <t>password6880</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>+34 668106321</t>
+          <t>+34 629194218</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Laura Ana Witt García</t>
+          <t>Laura Dolores Nasushkin Crespo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3732,22 +3732,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1981-02-25</t>
+          <t>1982-10-25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3762,17 +3762,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>password7018</t>
+          <t>password9250</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>+34 653570427</t>
+          <t>+34 660421874</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dolores  Rodríguez Landa</t>
+          <t>Dolores  Ortiz Somavilla</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3794,22 +3794,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1988-08-19</t>
+          <t>1996-02-26</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3819,17 +3819,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>password7461</t>
+          <t>password7404</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>+34 660998172</t>
+          <t>+34 689929491</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Victoria Ana López Llata</t>
+          <t>Clara  Martínez Rodríguez</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1988-11-01</t>
+          <t>1997-02-27</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>password1570</t>
+          <t>password6456</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>+34 683572942</t>
+          <t>+34 623363718</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3901,14 +3901,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Elena Pilar Martínez López</t>
+          <t>Victoria Sara Saldaña González</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3918,22 +3918,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2008-09-06</t>
+          <t>1995-08-26</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2016-03-24</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2027-03-16</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3943,22 +3943,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>password8718</t>
+          <t>password7613</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>+34 621748230</t>
+          <t>+34 672148184</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3970,7 +3970,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ana Sofía Condori Pastor</t>
+          <t>Laura Ana Condori Gándara</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1999-08-09</t>
+          <t>1985-08-17</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2019-07-14</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4010,17 +4010,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>password4491</t>
+          <t>password6993</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>+34 669946165</t>
+          <t>+34 678969524</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4032,7 +4032,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sara  Álvarez García</t>
+          <t>Isabel  Ortiz Crespo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4042,22 +4042,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1996-06-12</t>
+          <t>1998-04-15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2017-08-03</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4067,22 +4067,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>password1911</t>
+          <t>password1981</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>+34 644679139</t>
+          <t>+34 680204770</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Victoria  Álvarez Rodríguez</t>
+          <t>Elena Sofía Landa Pastor</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4104,22 +4104,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1990-12-15</t>
+          <t>1990-04-22</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2015-07-06</t>
+          <t>2017-01-16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4129,34 +4129,34 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>password3615</t>
+          <t>password2592</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>+34 683215774</t>
+          <t>+34 656233002</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sofía Dolores Cifrián Gándara</t>
+          <t>Clara Isabel Witt García</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1996-02-17</t>
+          <t>2007-01-07</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2017-08-03</t>
+          <t>2018-03-11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4191,34 +4191,34 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>password4927</t>
+          <t>password9588</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>+34 600377420</t>
+          <t>+34 675447598</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Laura  Martínez Landa</t>
+          <t>Victoria  Rodríguez Nasushkin</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4228,22 +4228,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1997-10-27</t>
+          <t>1980-04-05</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2015-04-13</t>
+          <t>2017-03-15</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4258,17 +4258,17 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>password2444</t>
+          <t>password9934</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>+34 693098817</t>
+          <t>+34 632037732</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4280,7 +4280,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ana  Gándara González</t>
+          <t>Laura  Grapelli Rodríguez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4290,22 +4290,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1987-04-09</t>
+          <t>1984-03-08</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2017-10-05</t>
+          <t>2019-07-10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2027-12-15</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4315,22 +4315,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>password5670</t>
+          <t>password9141</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>+34 607308920</t>
+          <t>+34 605981353</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4342,7 +4342,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sara Sara Gándara Álvarez</t>
+          <t>María  García Somavilla</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4352,22 +4352,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1987-10-15</t>
+          <t>2010-12-28</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2016-02-11</t>
+          <t>2015-05-12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4377,22 +4377,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>password8345</t>
+          <t>password5766</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>+34 619183939</t>
+          <t>+34 621035184</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Isabel  Landa Gándara</t>
+          <t>Carmen Laura Hidalgo González</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4414,22 +4414,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1992-10-01</t>
+          <t>1984-07-03</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2017-10-12</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2027-03-25</t>
+          <t>2027-10-23</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4439,17 +4439,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>password3284</t>
+          <t>password3198</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>+34 629864812</t>
+          <t>+34 658344708</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4459,14 +4459,14 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dolores Pilar Del Rey Witt</t>
+          <t>Lucía Dolores Witt Saldaña</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4476,22 +4476,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2008-08-13</t>
+          <t>1997-09-21</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2019-05-24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2027-11-13</t>
+          <t>2027-04-20</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4501,17 +4501,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>password3904</t>
+          <t>password4268</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>+34 632477008</t>
+          <t>+34 659484971</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Clara Sara Del Rey López</t>
+          <t>Carmen Isabel Hidalgo Martínez</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4538,22 +4538,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1983-04-06</t>
+          <t>2007-12-19</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>Cristo Redentor</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2018-07-14</t>
+          <t>2019-06-28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4563,34 +4563,34 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>password6145</t>
+          <t>password1120</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>+34 671899938</t>
+          <t>+34 619365784</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>María Isabel Somavilla Llata</t>
+          <t>Clara  González Nasushkin</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4600,22 +4600,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1982-01-06</t>
+          <t>1981-12-15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-06-20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4625,34 +4625,34 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>password5957</t>
+          <t>password1624</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>+34 640913102</t>
+          <t>+34 618525373</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Victoria Carmen Álvarez Landa</t>
+          <t>Carmen Sara Grapelli Grapelli</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4662,22 +4662,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2001-06-19</t>
+          <t>2007-12-15</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2016-10-03</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4687,22 +4687,22 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>password2327</t>
+          <t>password2919</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>+34 641640983</t>
+          <t>+34 658728762</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Marta  Landa Martínez</t>
+          <t>Ana Dolores López Pastor</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4724,22 +4724,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2002-10-24</t>
+          <t>1992-09-18</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>La Roca</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2019-04-16</t>
+          <t>2016-10-16</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2027-02-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4754,29 +4754,29 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>password3000</t>
+          <t>password9857</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>+34 625911824</t>
+          <t>+34 639882762</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Laura Victoria Ortiz Caprara</t>
+          <t>Clara Ana Saldaña Rodríguez</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4786,22 +4786,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2010-07-16</t>
+          <t>1983-08-12</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2017-12-28</t>
+          <t>2021-12-13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4811,17 +4811,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>password3545</t>
+          <t>password4148</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>+34 688581133</t>
+          <t>+34 649587688</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4831,14 +4831,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Marta Pilar Cifrián Witt</t>
+          <t>Clara Isabel Witt Nasushkin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4848,22 +4848,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1985-08-26</t>
+          <t>1997-07-05</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2017-05-21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4873,17 +4873,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>password1348</t>
+          <t>password6342</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>+34 636680901</t>
+          <t>+34 629183023</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lucía Lucía Rodríguez Condori</t>
+          <t>Lucía Carmen Crespo Del Rey</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4910,22 +4910,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1997-05-01</t>
+          <t>2008-12-26</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2017-05-24</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2027-09-23</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4940,17 +4940,17 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>password8745</t>
+          <t>password1253</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>+34 648981217</t>
+          <t>+34 616157611</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ana  Saldaña Pastor</t>
+          <t>Sara Laura García Caprara</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1986-11-27</t>
+          <t>1982-01-05</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2019-11-16</t>
+          <t>2017-09-21</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4997,17 +4997,17 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>password8948</t>
+          <t>password7520</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>+34 669019002</t>
+          <t>+34 649049412</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5024,7 +5024,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dolores Lucía Llata Saldaña</t>
+          <t>Pilar Sofía Condori Saldaña</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5034,22 +5034,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1983-02-03</t>
+          <t>1993-06-21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>password8202</t>
+          <t>password6777</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>+34 626781850</t>
+          <t>+34 664816894</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5086,7 +5086,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lucía Clara Caprara Llata</t>
+          <t>Elena Victoria Grapelli López</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5096,22 +5096,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2000-09-19</t>
+          <t>2005-10-27</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>La Roca</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2016-11-15</t>
+          <t>2019-02-11</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5121,22 +5121,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
+          <t>Amarillo</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>password1192</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>+34 690316499</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>Rojo</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>password3894</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>+34 648950828</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Rosa</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Pilar  Saldaña Pastor</t>
+          <t>Carmen Clara Nasushkin Rodríguez</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5158,22 +5158,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1998-02-27</t>
+          <t>2003-06-24</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5188,29 +5188,29 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>password3736</t>
+          <t>password1996</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>+34 613811260</t>
+          <t>+34 669096198</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Marta  Nasushkin Landa</t>
+          <t>Elena  Del Rey Llata</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5220,22 +5220,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1990-04-04</t>
+          <t>2009-11-22</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Maranatha</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5245,34 +5245,34 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>password6292</t>
+          <t>password7225</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>+34 669423986</t>
+          <t>+34 623192523</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sara  Del Rey Cifrián</t>
+          <t>Carmen Marta González Witt</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5282,22 +5282,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1987-01-13</t>
+          <t>2007-09-21</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2015-12-26</t>
+          <t>2017-10-07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>password1425</t>
+          <t>password4550</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>+34 692697564</t>
+          <t>+34 649326916</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Elena Sofía Gándara Grapelli</t>
+          <t>Sofía Marta González Saldaña</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5344,22 +5344,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2005-11-15</t>
+          <t>1981-01-28</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2019-01-20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2027-12-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>password1779</t>
+          <t>password8639</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>+34 682852784</t>
+          <t>+34 678920145</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5396,7 +5396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Carmen Lucía Somavilla Crespo</t>
+          <t>Isabel  Rodríguez Witt</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5406,22 +5406,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2007-04-23</t>
+          <t>1986-06-23</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2015-12-01</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5431,34 +5431,34 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>password9794</t>
+          <t>password3309</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>+34 625584793</t>
+          <t>+34 650634230</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sofía  Ortiz Crespo</t>
+          <t>Ana  Álvarez Pastor</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5468,22 +5468,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1980-10-13</t>
+          <t>2006-09-20</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Adonai</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2018-01-08</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5498,17 +5498,17 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>password8484</t>
+          <t>password5854</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>+34 615157809</t>
+          <t>+34 673832971</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5520,7 +5520,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Clara Sofía Saldaña Condori</t>
+          <t>Laura Lucía González Crespo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5530,22 +5530,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1983-10-07</t>
+          <t>1996-08-01</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Efraín</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2019-04-01</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2027-11-16</t>
+          <t>2027-09-17</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5555,22 +5555,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>password4886</t>
+          <t>password9311</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>+34 635876397</t>
+          <t>+34 657528109</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5582,7 +5582,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Clara  Saldaña Álvarez</t>
+          <t>Sofía  Caprara Del Rey</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5592,22 +5592,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2001-05-13</t>
+          <t>1999-01-03</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2016-07-21</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5617,22 +5617,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>password9935</t>
+          <t>password5293</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>+34 628812362</t>
+          <t>+34 663339900</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Pilar  Crespo Del Rey</t>
+          <t>Sara Dolores Somavilla Llata</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5654,22 +5654,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1984-05-04</t>
+          <t>1990-01-14</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>La Roca</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2015-06-20</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>password4710</t>
+          <t>password2673</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>+34 643344099</t>
+          <t>+34 664901837</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5699,14 +5699,14 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Marta María Gándara Rodríguez</t>
+          <t>Sara  Pastor García</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1993-11-24</t>
+          <t>1986-02-15</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2017-05-03</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2027-04-18</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5741,22 +5741,22 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>password5458</t>
+          <t>password9032</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>+34 623345133</t>
+          <t>+34 686397937</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5768,7 +5768,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Isabel  Landa Crespo</t>
+          <t>Ana  Crespo González</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5778,22 +5778,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2000-12-19</t>
+          <t>1984-10-17</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2015-06-24</t>
+          <t>2017-01-27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5803,17 +5803,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>password1600</t>
+          <t>password5412</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>+34 648553629</t>
+          <t>+34 691962834</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pilar Marta Del Rey Llata</t>
+          <t>Isabel  Pastor Ortiz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5840,22 +5840,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1999-09-06</t>
+          <t>1986-03-23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>La Roca</t>
+          <t>Maranatha</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2016-08-12</t>
+          <t>2017-10-02</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2027-10-10</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5865,34 +5865,34 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>password7776</t>
+          <t>password3372</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>+34 687686439</t>
+          <t>+34 638791320</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Carmen  Caprara Condori</t>
+          <t>Lucía  Condori Crespo</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1992-07-27</t>
+          <t>2008-09-04</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5912,12 +5912,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5927,34 +5927,34 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>password8028</t>
+          <t>password7280</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>+34 671309133</t>
+          <t>+34 622485742</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lucía María Del Rey Hidalgo</t>
+          <t>Ana Victoria Saldaña López</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5964,22 +5964,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2003-01-11</t>
+          <t>1991-04-04</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2018-08-24</t>
+          <t>2022-01-27</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2027-10-22</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5994,29 +5994,29 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>password2137</t>
+          <t>password1446</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>+34 638435860</t>
+          <t>+34 616626787</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ana Sara Saldaña Pastor</t>
+          <t>María  Saldaña Gándara</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6026,22 +6026,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2008-01-14</t>
+          <t>2009-01-13</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>El Reposo</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2018-06-04</t>
+          <t>2017-12-08</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2027-12-10</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6051,34 +6051,34 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>password6725</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>+34 612014729</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
           <t>Rojo</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>password9513</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>+34 674187065</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Blanco</t>
-        </is>
-      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ana Sofía Llata González</t>
+          <t>Lucía María Pastor Landa</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6088,22 +6088,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2006-03-13</t>
+          <t>1980-08-08</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Maranatha</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2017-11-20</t>
+          <t>2016-07-05</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6113,34 +6113,34 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>password7322</t>
+          <t>password9428</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>+34 636824189</t>
+          <t>+34 612822621</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Victoria  Álvarez García</t>
+          <t>Elena Dolores Landa Álvarez</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6150,22 +6150,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1990-12-08</t>
+          <t>2002-09-01</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2027-03-11</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6180,29 +6180,29 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>password6535</t>
+          <t>password5365</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>+34 655401486</t>
+          <t>+34 696300198</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Carmen Victoria Condori Ortiz</t>
+          <t>Clara  Martínez Condori</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6212,22 +6212,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2008-12-28</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>Yahvé</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2017-07-24</t>
+          <t>2016-07-19</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6237,17 +6237,17 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>password9157</t>
+          <t>password6097</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>+34 606756396</t>
+          <t>+34 655434362</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6264,7 +6264,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Clara Sofía Rodríguez Grapelli</t>
+          <t>Laura Laura Cifrián Somavilla</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6274,22 +6274,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1992-03-22</t>
+          <t>2010-11-10</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>El Shadai</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2017-05-13</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>password4616</t>
+          <t>password5492</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>+34 628309519</t>
+          <t>+34 661370604</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6319,14 +6319,14 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ana  Condori Hidalgo</t>
+          <t>Ana Marta Rodríguez Somavilla</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6336,22 +6336,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1989-12-14</t>
+          <t>1997-02-02</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>El Reposo</t>
+          <t>Judá</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2027-10-10</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6361,22 +6361,22 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>password6054</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>+34 694791121</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
           <t>Rojo</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>password7124</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>+34 608690271</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Blanco</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6388,7 +6388,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sara  García Cifrián</t>
+          <t>Lucía  Hidalgo Saldaña</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6398,22 +6398,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1987-06-19</t>
+          <t>1987-07-12</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Judá</t>
+          <t>Edificando</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2015-01-08</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2027-07-26</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6423,34 +6423,34 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Amarillo</t>
+          <t>Rojo</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>password2880</t>
+          <t>password3194</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>+34 685619554</t>
+          <t>+34 671127430</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>auxiliar</t>
+          <t>titular</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Laura María García Somavilla</t>
+          <t>Victoria Sara Witt Ortiz</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6460,22 +6460,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2003-10-14</t>
+          <t>2003-10-27</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>El Shadai</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2016-01-05</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2027-09-10</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6490,29 +6490,29 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>password9728</t>
+          <t>password4502</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>+34 689488243</t>
+          <t>+34 662489536</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>auxiliar</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Clara Sofía Gándara Witt</t>
+          <t>Isabel Elena Martínez Witt</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6522,22 +6522,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1994-08-08</t>
+          <t>2006-01-14</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Yahvé</t>
+          <t>Efraín</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2015-04-04</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2027-03-15</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6547,17 +6547,17 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>password4681</t>
+          <t>password2699</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>+34 625240129</t>
+          <t>+34 620765542</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Elena María Álvarez García</t>
+          <t>María Carmen Álvarez Caprara</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6584,22 +6584,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2006-10-28</t>
+          <t>1987-08-10</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Edificando</t>
+          <t>Adonai</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2020-06-13</t>
+          <t>2015-06-19</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2027-02-27</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6614,17 +6614,17 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>password5534</t>
+          <t>password8824</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>+34 601176376</t>
+          <t>+34 652474519</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Azul</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6636,7 +6636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Isabel Marta Nasushkin Cifrián</t>
+          <t>Dolores Elena Hidalgo Del Rey</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6646,22 +6646,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2010-07-04</t>
+          <t>1991-06-03</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Cristo Redentor</t>
+          <t>La Roca</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2017-03-04</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6676,17 +6676,17 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>password6719</t>
+          <t>password1046</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>+34 643212763</t>
+          <t>+34 690885308</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
